--- a/Code/Results/Cases/Case_2_106/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_106/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.017228367534614</v>
+        <v>0.7058433170332705</v>
       </c>
       <c r="C2">
-        <v>0.08374414508378436</v>
+        <v>0.07589299558478046</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06839587069531206</v>
+        <v>0.1676849289299227</v>
       </c>
       <c r="F2">
-        <v>1.278782125457511</v>
+        <v>2.400560874658339</v>
       </c>
       <c r="G2">
-        <v>0.72539815715011</v>
+        <v>1.322996667511106</v>
       </c>
       <c r="H2">
-        <v>0.5487983322333747</v>
+        <v>1.259991072425294</v>
       </c>
       <c r="I2">
-        <v>0.5938302891766298</v>
+        <v>1.285890466443668</v>
       </c>
       <c r="J2">
-        <v>0.0735601632271532</v>
+        <v>0.08798896417971491</v>
       </c>
       <c r="K2">
-        <v>0.8817185715467701</v>
+        <v>0.4149592270594553</v>
       </c>
       <c r="L2">
-        <v>0.2582869521585138</v>
+        <v>0.4087342123875288</v>
       </c>
       <c r="M2">
-        <v>0.260307162443663</v>
+        <v>0.257632795613997</v>
       </c>
       <c r="N2">
-        <v>1.168877804299196</v>
+        <v>2.451327081456153</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8883201357402299</v>
+        <v>0.6727567676213937</v>
       </c>
       <c r="C3">
-        <v>0.07651732096245212</v>
+        <v>0.07339633752365415</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0653680871013762</v>
+        <v>0.1675891279756989</v>
       </c>
       <c r="F3">
-        <v>1.225157376120507</v>
+        <v>2.400603688313481</v>
       </c>
       <c r="G3">
-        <v>0.7088654013774232</v>
+        <v>1.327016002299288</v>
       </c>
       <c r="H3">
-        <v>0.5481525093938586</v>
+        <v>1.266380605452071</v>
       </c>
       <c r="I3">
-        <v>0.5932842469108479</v>
+        <v>1.292827113541033</v>
       </c>
       <c r="J3">
-        <v>0.07136931668940605</v>
+        <v>0.08709307933932564</v>
       </c>
       <c r="K3">
-        <v>0.765369899221696</v>
+        <v>0.3831244869144257</v>
       </c>
       <c r="L3">
-        <v>0.2352296662493387</v>
+        <v>0.4046225910701509</v>
       </c>
       <c r="M3">
-        <v>0.2300319773599107</v>
+        <v>0.2505718341667276</v>
       </c>
       <c r="N3">
-        <v>1.219337115700196</v>
+        <v>2.472917094709249</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8096828061768804</v>
+        <v>0.6527413314738055</v>
       </c>
       <c r="C4">
-        <v>0.0720858264532751</v>
+        <v>0.07183861730952401</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06356113863302149</v>
+        <v>0.167575824062915</v>
       </c>
       <c r="F4">
-        <v>1.194038737528061</v>
+        <v>2.401675821894329</v>
       </c>
       <c r="G4">
-        <v>0.7000286423511426</v>
+        <v>1.330137978200739</v>
       </c>
       <c r="H4">
-        <v>0.5485335392660744</v>
+        <v>1.270763307915431</v>
       </c>
       <c r="I4">
-        <v>0.5938669127304159</v>
+        <v>1.297598862277525</v>
       </c>
       <c r="J4">
-        <v>0.07001777211434046</v>
+        <v>0.08653640024180831</v>
       </c>
       <c r="K4">
-        <v>0.6943099460688558</v>
+        <v>0.3637292863464978</v>
       </c>
       <c r="L4">
-        <v>0.2212815097385104</v>
+        <v>0.4022535390827855</v>
       </c>
       <c r="M4">
-        <v>0.2116087470763759</v>
+        <v>0.2463467320889201</v>
       </c>
       <c r="N4">
-        <v>1.251635970902893</v>
+        <v>2.486858812436656</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7777514039065636</v>
+        <v>0.6446608164006875</v>
       </c>
       <c r="C5">
-        <v>0.07028004723714076</v>
+        <v>0.07119758485291783</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06283750002106281</v>
+        <v>0.1675818893520837</v>
       </c>
       <c r="F5">
-        <v>1.181791793992531</v>
+        <v>2.402376052257068</v>
       </c>
       <c r="G5">
-        <v>0.696742980395328</v>
+        <v>1.331574706989286</v>
       </c>
       <c r="H5">
-        <v>0.5488776023423583</v>
+        <v>1.272664952329492</v>
       </c>
       <c r="I5">
-        <v>0.594326889031759</v>
+        <v>1.29967237733641</v>
       </c>
       <c r="J5">
-        <v>0.06946539282535369</v>
+        <v>0.08630789975104491</v>
       </c>
       <c r="K5">
-        <v>0.6654331949407322</v>
+        <v>0.3558640228125256</v>
       </c>
       <c r="L5">
-        <v>0.2156470297878741</v>
+        <v>0.4013273832228137</v>
       </c>
       <c r="M5">
-        <v>0.2041391695787134</v>
+        <v>0.2446528664425784</v>
       </c>
       <c r="N5">
-        <v>1.265122111844633</v>
+        <v>2.492712551790685</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7724556775221458</v>
+        <v>0.6433236554084658</v>
       </c>
       <c r="C6">
-        <v>0.06998016600616097</v>
+        <v>0.07109076384069368</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06271809658290906</v>
+        <v>0.1675835914598078</v>
       </c>
       <c r="F6">
-        <v>1.179783846021508</v>
+        <v>2.402508239333571</v>
       </c>
       <c r="G6">
-        <v>0.6962160193588716</v>
+        <v>1.331823210689052</v>
       </c>
       <c r="H6">
-        <v>0.5489459457705692</v>
+        <v>1.272987707668321</v>
       </c>
       <c r="I6">
-        <v>0.5944164737355742</v>
+        <v>1.300024476088613</v>
       </c>
       <c r="J6">
-        <v>0.06937357273648459</v>
+        <v>0.08626985812938415</v>
       </c>
       <c r="K6">
-        <v>0.6606427025202493</v>
+        <v>0.3545603337672674</v>
       </c>
       <c r="L6">
-        <v>0.2147143317717237</v>
+        <v>0.4011759708978815</v>
       </c>
       <c r="M6">
-        <v>0.2029010457701155</v>
+        <v>0.2443732906455942</v>
       </c>
       <c r="N6">
-        <v>1.267380852384015</v>
+        <v>2.493694972957595</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8092517260070622</v>
+        <v>0.6526320466358868</v>
       </c>
       <c r="C7">
-        <v>0.07206147446520106</v>
+        <v>0.0718299974512675</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06355132845058797</v>
+        <v>0.1675758592977079</v>
       </c>
       <c r="F7">
-        <v>1.193871839167088</v>
+        <v>2.401684198792751</v>
       </c>
       <c r="G7">
-        <v>0.6999830732108876</v>
+        <v>1.330156688351977</v>
       </c>
       <c r="H7">
-        <v>0.5485374236654081</v>
+        <v>1.270788485717247</v>
       </c>
       <c r="I7">
-        <v>0.5938722257471269</v>
+        <v>1.297626304042996</v>
       </c>
       <c r="J7">
-        <v>0.07001032908938498</v>
+        <v>0.08653332526758106</v>
       </c>
       <c r="K7">
-        <v>0.6939201956507759</v>
+        <v>0.3636230565498124</v>
       </c>
       <c r="L7">
-        <v>0.2212053246733703</v>
+        <v>0.4022408894907059</v>
       </c>
       <c r="M7">
-        <v>0.2115078604348781</v>
+        <v>0.2463237748714597</v>
       </c>
       <c r="N7">
-        <v>1.251816546426298</v>
+        <v>2.486937060021972</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9726650455416461</v>
+        <v>0.6943731558397417</v>
       </c>
       <c r="C8">
-        <v>0.0812502795766008</v>
+        <v>0.0750372733232112</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06734082556000232</v>
+        <v>0.1676424736282982</v>
       </c>
       <c r="F8">
-        <v>1.259904705456975</v>
+        <v>2.400358770330939</v>
       </c>
       <c r="G8">
-        <v>0.7194155031657914</v>
+        <v>1.324246789273161</v>
       </c>
       <c r="H8">
-        <v>0.5484101052490331</v>
+        <v>1.262098879742055</v>
       </c>
       <c r="I8">
-        <v>0.593446377671988</v>
+        <v>1.288175879208602</v>
       </c>
       <c r="J8">
-        <v>0.07280606849064952</v>
+        <v>0.08768143970787534</v>
       </c>
       <c r="K8">
-        <v>0.8415139982976712</v>
+        <v>0.4039513745442207</v>
       </c>
       <c r="L8">
-        <v>0.2502914938899607</v>
+        <v>0.4072843393693262</v>
       </c>
       <c r="M8">
-        <v>0.249831579731211</v>
+        <v>0.2551753573700246</v>
       </c>
       <c r="N8">
-        <v>1.185998602960236</v>
+        <v>2.458629094827444</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.297920309570344</v>
+        <v>0.7785873981084137</v>
       </c>
       <c r="C9">
-        <v>0.09938238030532176</v>
+        <v>0.08113148788276447</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07520498672390374</v>
+        <v>0.1681325936292346</v>
       </c>
       <c r="F9">
-        <v>1.404705891437899</v>
+        <v>2.406045444771621</v>
       </c>
       <c r="G9">
-        <v>0.7686758545891621</v>
+        <v>1.317847542341269</v>
       </c>
       <c r="H9">
-        <v>0.5546523047680552</v>
+        <v>1.24869998420148</v>
       </c>
       <c r="I9">
-        <v>0.6002902834244424</v>
+        <v>1.273707647701094</v>
       </c>
       <c r="J9">
-        <v>0.07823902066353128</v>
+        <v>0.08988011221475745</v>
       </c>
       <c r="K9">
-        <v>1.134653987615962</v>
+        <v>0.4842255846492947</v>
       </c>
       <c r="L9">
-        <v>0.309137810350677</v>
+        <v>0.418402602967447</v>
       </c>
       <c r="M9">
-        <v>0.3264789537850845</v>
+        <v>0.2734035403171617</v>
       </c>
       <c r="N9">
-        <v>1.067705804386712</v>
+        <v>2.408552857561897</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.540918019574463</v>
+        <v>0.8418797389525707</v>
       </c>
       <c r="C10">
-        <v>0.11287388096207</v>
+        <v>0.08549191904215547</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08127580057163897</v>
+        <v>0.168709753808475</v>
       </c>
       <c r="F10">
-        <v>1.521865756181356</v>
+        <v>2.415261617648952</v>
       </c>
       <c r="G10">
-        <v>0.8127392059261922</v>
+        <v>1.316311904407002</v>
       </c>
       <c r="H10">
-        <v>0.5636732479668609</v>
+        <v>1.241070101419069</v>
       </c>
       <c r="I10">
-        <v>0.6105841581928146</v>
+        <v>1.265551443918888</v>
       </c>
       <c r="J10">
-        <v>0.08220207797302237</v>
+        <v>0.09146290897181331</v>
       </c>
       <c r="K10">
-        <v>1.353347639570245</v>
+        <v>0.54391994117114</v>
       </c>
       <c r="L10">
-        <v>0.3536981733700486</v>
+        <v>0.4273133865803231</v>
       </c>
       <c r="M10">
-        <v>0.3839717294349896</v>
+        <v>0.2873207327667799</v>
       </c>
       <c r="N10">
-        <v>0.9878459249731009</v>
+        <v>2.3750709855316</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.652604261790486</v>
+        <v>0.870977910827321</v>
       </c>
       <c r="C11">
-        <v>0.1190729857038519</v>
+        <v>0.08745064425026783</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.08410808017712057</v>
+        <v>0.1690190230540694</v>
       </c>
       <c r="F11">
-        <v>1.577846822809235</v>
+        <v>2.420545766548699</v>
       </c>
       <c r="G11">
-        <v>0.8347499882987535</v>
+        <v>1.316301285316541</v>
       </c>
       <c r="H11">
-        <v>0.5688541170203933</v>
+        <v>1.23807875342726</v>
       </c>
       <c r="I11">
-        <v>0.6165497267323445</v>
+        <v>1.262377328860964</v>
       </c>
       <c r="J11">
-        <v>0.08399913442205431</v>
+        <v>0.09217581533350483</v>
       </c>
       <c r="K11">
-        <v>1.453813737289266</v>
+        <v>0.5712306129101989</v>
       </c>
       <c r="L11">
-        <v>0.3743108873746763</v>
+        <v>0.4315269996002655</v>
       </c>
       <c r="M11">
-        <v>0.4104470799389546</v>
+        <v>0.2937649271723828</v>
       </c>
       <c r="N11">
-        <v>0.953161135143894</v>
+        <v>2.360556798609267</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.695084929509136</v>
+        <v>0.8820402059043886</v>
       </c>
       <c r="C12">
-        <v>0.1214315299384765</v>
+        <v>0.08818881652337041</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.08519134645986526</v>
+        <v>0.1691428141861167</v>
       </c>
       <c r="F12">
-        <v>1.599461881465146</v>
+        <v>2.422703439157829</v>
       </c>
       <c r="G12">
-        <v>0.843390601557175</v>
+        <v>1.316396208976855</v>
       </c>
       <c r="H12">
-        <v>0.5709811405003506</v>
+        <v>1.237014867678496</v>
       </c>
       <c r="I12">
-        <v>0.6190057076551696</v>
+        <v>1.261252409737857</v>
       </c>
       <c r="J12">
-        <v>0.08467882330338483</v>
+        <v>0.09244474134396441</v>
       </c>
       <c r="K12">
-        <v>1.49202127441265</v>
+        <v>0.581594530325475</v>
       </c>
       <c r="L12">
-        <v>0.3821702148748471</v>
+        <v>0.4331454659664473</v>
       </c>
       <c r="M12">
-        <v>0.4205244894824673</v>
+        <v>0.2962213260387756</v>
       </c>
       <c r="N12">
-        <v>0.9402738259147583</v>
+        <v>2.355163712337077</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.685927236666714</v>
+        <v>0.8796558195273008</v>
       </c>
       <c r="C13">
-        <v>0.1209230455085049</v>
+        <v>0.08802999568658265</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.08495755812139549</v>
+        <v>0.1691158572022289</v>
       </c>
       <c r="F13">
-        <v>1.594787675275654</v>
+        <v>2.422231782143939</v>
       </c>
       <c r="G13">
-        <v>0.8415157166002416</v>
+        <v>1.316371364570614</v>
       </c>
       <c r="H13">
-        <v>0.5705155320552819</v>
+        <v>1.237240932670886</v>
       </c>
       <c r="I13">
-        <v>0.6184678004657655</v>
+        <v>1.261491255245005</v>
       </c>
       <c r="J13">
-        <v>0.08453247634667704</v>
+        <v>0.09238686960550169</v>
       </c>
       <c r="K13">
-        <v>1.483784969087083</v>
+        <v>0.5793615048524146</v>
       </c>
       <c r="L13">
-        <v>0.3804751019306138</v>
+        <v>0.4327958858917498</v>
       </c>
       <c r="M13">
-        <v>0.4183517443632212</v>
+        <v>0.2956915820139443</v>
       </c>
       <c r="N13">
-        <v>0.9430381717060214</v>
+        <v>2.356320623033454</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.656095277197522</v>
+        <v>0.8718871450299162</v>
       </c>
       <c r="C14">
-        <v>0.1192667892736949</v>
+        <v>0.08751144525071197</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.08419698233723594</v>
+        <v>0.1690290738260174</v>
       </c>
       <c r="F14">
-        <v>1.579616583867008</v>
+        <v>2.420720141189065</v>
       </c>
       <c r="G14">
-        <v>0.8354545948865848</v>
+        <v>1.316307111633662</v>
       </c>
       <c r="H14">
-        <v>0.569025737491927</v>
+        <v>1.23798984705995</v>
       </c>
       <c r="I14">
-        <v>0.61674775990641</v>
+        <v>1.262283237205416</v>
       </c>
       <c r="J14">
-        <v>0.08405506916306393</v>
+        <v>0.09219796087828414</v>
       </c>
       <c r="K14">
-        <v>1.456953690883665</v>
+        <v>0.5720828207770126</v>
       </c>
       <c r="L14">
-        <v>0.3749563746855671</v>
+        <v>0.4316596944779718</v>
       </c>
       <c r="M14">
-        <v>0.4112750839011383</v>
+        <v>0.2939666943574224</v>
       </c>
       <c r="N14">
-        <v>0.9520958728916327</v>
+        <v>2.360111039244131</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.637847465943281</v>
+        <v>0.8671342487664617</v>
       </c>
       <c r="C15">
-        <v>0.1182537956309346</v>
+        <v>0.08719335583172949</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.08373252487230687</v>
+        <v>0.1689767849303685</v>
       </c>
       <c r="F15">
-        <v>1.570378992667628</v>
+        <v>2.419814612924952</v>
       </c>
       <c r="G15">
-        <v>0.8317824895628263</v>
+        <v>1.316280640951973</v>
       </c>
       <c r="H15">
-        <v>0.568135018367613</v>
+        <v>1.238457545598578</v>
       </c>
       <c r="I15">
-        <v>0.6157202197609948</v>
+        <v>1.26277838156151</v>
       </c>
       <c r="J15">
-        <v>0.08376253731305638</v>
+        <v>0.09208211350598106</v>
       </c>
       <c r="K15">
-        <v>1.44054069705399</v>
+        <v>0.5676272647386895</v>
       </c>
       <c r="L15">
-        <v>0.3715831342393443</v>
+        <v>0.4309667172748419</v>
       </c>
       <c r="M15">
-        <v>0.4069473375931452</v>
+        <v>0.2929122458671927</v>
       </c>
       <c r="N15">
-        <v>0.9576764822197923</v>
+        <v>2.362446209126592</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.533644020562548</v>
+        <v>0.8399842164927804</v>
       </c>
       <c r="C16">
-        <v>0.112470181131016</v>
+        <v>0.0853634132642469</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08109217505394639</v>
+        <v>0.1686904789509285</v>
       </c>
       <c r="F16">
-        <v>1.518263815794086</v>
+        <v>2.414938227541029</v>
       </c>
       <c r="G16">
-        <v>0.8113422314850993</v>
+        <v>1.316326443279365</v>
       </c>
       <c r="H16">
-        <v>0.563357200417002</v>
+        <v>1.241275235249745</v>
       </c>
       <c r="I16">
-        <v>0.610221154780632</v>
+        <v>1.265769664619704</v>
       </c>
       <c r="J16">
-        <v>0.08208452118768861</v>
+        <v>0.09141617457395768</v>
       </c>
       <c r="K16">
-        <v>1.346803541019483</v>
+        <v>0.5421382185421919</v>
       </c>
       <c r="L16">
-        <v>0.3523583486134925</v>
+        <v>0.4270412246670787</v>
       </c>
       <c r="M16">
-        <v>0.382248437605611</v>
+        <v>0.2869018540203498</v>
       </c>
       <c r="N16">
-        <v>0.9901466320642349</v>
+        <v>2.376033950181448</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.470027646499886</v>
+        <v>0.8234065571045051</v>
       </c>
       <c r="C17">
-        <v>0.1089394428399402</v>
+        <v>0.08423445054853573</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.07949090269968195</v>
+        <v>0.1685267760463951</v>
       </c>
       <c r="F17">
-        <v>1.487001246703571</v>
+        <v>2.412226111278386</v>
       </c>
       <c r="G17">
-        <v>0.799322134505843</v>
+        <v>1.316530755142196</v>
       </c>
       <c r="H17">
-        <v>0.5607091138419804</v>
+        <v>1.243126555434401</v>
       </c>
       <c r="I17">
-        <v>0.6071848238972706</v>
+        <v>1.267742011205321</v>
       </c>
       <c r="J17">
-        <v>0.08105364594991471</v>
+        <v>0.09100581091073323</v>
       </c>
       <c r="K17">
-        <v>1.289565366259268</v>
+        <v>0.5265410417923988</v>
       </c>
       <c r="L17">
-        <v>0.3406553050164973</v>
+        <v>0.4246739467161404</v>
       </c>
       <c r="M17">
-        <v>0.3671826387118244</v>
+        <v>0.283243554778764</v>
       </c>
       <c r="N17">
-        <v>1.010494412608193</v>
+        <v>2.38455322387588</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.433543536045477</v>
+        <v>0.8139003784580154</v>
       </c>
       <c r="C18">
-        <v>0.1069143257633201</v>
+        <v>0.08358276022826772</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.0785765044965494</v>
+        <v>0.1684370180094987</v>
       </c>
       <c r="F18">
-        <v>1.469270587664695</v>
+        <v>2.410768944403202</v>
       </c>
       <c r="G18">
-        <v>0.7925920905637156</v>
+        <v>1.316713021930155</v>
       </c>
       <c r="H18">
-        <v>0.5592867393150982</v>
+        <v>1.244236525747056</v>
       </c>
       <c r="I18">
-        <v>0.605558354904673</v>
+        <v>1.2689269239944</v>
       </c>
       <c r="J18">
-        <v>0.08046017124903315</v>
+        <v>0.09076911158516765</v>
       </c>
       <c r="K18">
-        <v>1.256734424123891</v>
+        <v>0.5175846094165877</v>
       </c>
       <c r="L18">
-        <v>0.333955921608279</v>
+        <v>0.423327425121812</v>
       </c>
       <c r="M18">
-        <v>0.3585471066186514</v>
+        <v>0.2811500614014548</v>
       </c>
       <c r="N18">
-        <v>1.022351963003363</v>
+        <v>2.389520759090754</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.421208240008355</v>
+        <v>0.8106867227699297</v>
       </c>
       <c r="C19">
-        <v>0.1062295658437193</v>
+        <v>0.08336170643620733</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07826802322898629</v>
+        <v>0.1684073843309974</v>
       </c>
       <c r="F19">
-        <v>1.463309469665248</v>
+        <v>2.410293232845717</v>
       </c>
       <c r="G19">
-        <v>0.7903442760635784</v>
+        <v>1.316785854998258</v>
       </c>
       <c r="H19">
-        <v>0.5588221490618963</v>
+        <v>1.244620097967399</v>
       </c>
       <c r="I19">
-        <v>0.605027895753075</v>
+        <v>1.269336785214584</v>
       </c>
       <c r="J19">
-        <v>0.0802591373799828</v>
+        <v>0.09068885475174682</v>
       </c>
       <c r="K19">
-        <v>1.245633403904492</v>
+        <v>0.5145546435023505</v>
       </c>
       <c r="L19">
-        <v>0.3316929699391551</v>
+        <v>0.4228741096898432</v>
       </c>
       <c r="M19">
-        <v>0.3556282401659629</v>
+        <v>0.2804430767139507</v>
       </c>
       <c r="N19">
-        <v>1.026392870174277</v>
+        <v>2.391214268954361</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.476788551858277</v>
+        <v>0.8251682952993917</v>
       </c>
       <c r="C20">
-        <v>0.1093146937904521</v>
+        <v>0.08435487267945518</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0796606725055824</v>
+        <v>0.1685437474550682</v>
       </c>
       <c r="F20">
-        <v>1.4903030372584</v>
+        <v>2.412504186478628</v>
       </c>
       <c r="G20">
-        <v>0.8005825321949516</v>
+        <v>1.316502304071136</v>
       </c>
       <c r="H20">
-        <v>0.560980509696364</v>
+        <v>1.242924808024995</v>
       </c>
       <c r="I20">
-        <v>0.6074955447392725</v>
+        <v>1.267526828349411</v>
       </c>
       <c r="J20">
-        <v>0.08116344044575641</v>
+        <v>0.09104956415503906</v>
       </c>
       <c r="K20">
-        <v>1.295648900665981</v>
+        <v>0.5281998743606664</v>
       </c>
       <c r="L20">
-        <v>0.3418977806219914</v>
+        <v>0.4249243884934657</v>
       </c>
       <c r="M20">
-        <v>0.3687832836731673</v>
+        <v>0.2836318844585435</v>
       </c>
       <c r="N20">
-        <v>1.008312338607457</v>
+        <v>2.383639349067899</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.664852367628839</v>
+        <v>0.8741678184591706</v>
       </c>
       <c r="C21">
-        <v>0.1197529527671435</v>
+        <v>0.08766385239010788</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.08442008544544422</v>
+        <v>0.1690543832991871</v>
       </c>
       <c r="F21">
-        <v>1.584061153015284</v>
+        <v>2.421159896918681</v>
       </c>
       <c r="G21">
-        <v>0.8372264084748906</v>
+        <v>1.316323298794529</v>
       </c>
       <c r="H21">
-        <v>0.5694587590095068</v>
+        <v>1.237768004211517</v>
       </c>
       <c r="I21">
-        <v>0.6172475284261765</v>
+        <v>1.262048522227744</v>
       </c>
       <c r="J21">
-        <v>0.08419531733396823</v>
+        <v>0.09225347617458723</v>
       </c>
       <c r="K21">
-        <v>1.464830073831394</v>
+        <v>0.5742201538755864</v>
       </c>
       <c r="L21">
-        <v>0.3765758622292878</v>
+        <v>0.4319928021725161</v>
       </c>
       <c r="M21">
-        <v>0.4133522196236683</v>
+        <v>0.2944728993533232</v>
       </c>
       <c r="N21">
-        <v>0.9494286121452795</v>
+        <v>2.358994903150823</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.78886772988983</v>
+        <v>0.9064448247261225</v>
       </c>
       <c r="C22">
-        <v>0.1266406887446863</v>
+        <v>0.08980575304077831</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.08759355810268588</v>
+        <v>0.1694270168219489</v>
       </c>
       <c r="F22">
-        <v>1.647779272545321</v>
+        <v>2.427730016376202</v>
       </c>
       <c r="G22">
-        <v>0.8629684662240322</v>
+        <v>1.316783043762328</v>
       </c>
       <c r="H22">
-        <v>0.5759676615175522</v>
+        <v>1.234799140826624</v>
       </c>
       <c r="I22">
-        <v>0.6247754389760374</v>
+        <v>1.258917210996493</v>
       </c>
       <c r="J22">
-        <v>0.08617206321429549</v>
+        <v>0.09303425673071075</v>
       </c>
       <c r="K22">
-        <v>1.5763625304931</v>
+        <v>0.6044248784457125</v>
       </c>
       <c r="L22">
-        <v>0.3995555797845753</v>
+        <v>0.4367456087197041</v>
       </c>
       <c r="M22">
-        <v>0.4427852002238666</v>
+        <v>0.301652030545668</v>
       </c>
       <c r="N22">
-        <v>0.9123903220355594</v>
+        <v>2.343489421151656</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.72256932464407</v>
+        <v>0.8891950217559668</v>
       </c>
       <c r="C23">
-        <v>0.1229577833060205</v>
+        <v>0.08866446865206967</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.08589385493600332</v>
+        <v>0.1692245888699055</v>
       </c>
       <c r="F23">
-        <v>1.613537742205366</v>
+        <v>2.424139969274478</v>
       </c>
       <c r="G23">
-        <v>0.8490573661839136</v>
+        <v>1.31648489172801</v>
       </c>
       <c r="H23">
-        <v>0.5724015922490935</v>
+        <v>1.236346977316799</v>
       </c>
       <c r="I23">
-        <v>0.620647659406167</v>
+        <v>1.260547377380348</v>
       </c>
       <c r="J23">
-        <v>0.08511746936871489</v>
+        <v>0.09261809690317335</v>
       </c>
       <c r="K23">
-        <v>1.516739717423604</v>
+        <v>0.5882924823526992</v>
       </c>
       <c r="L23">
-        <v>0.3872604047158887</v>
+        <v>0.4341968100550986</v>
       </c>
       <c r="M23">
-        <v>0.4270464625727683</v>
+        <v>0.2978118523024378</v>
       </c>
       <c r="N23">
-        <v>0.9320223438961008</v>
+        <v>2.351709977001995</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.473731668572924</v>
+        <v>0.8243717369823287</v>
       </c>
       <c r="C24">
-        <v>0.1091450281998121</v>
+        <v>0.08430043804177245</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.07958390032536755</v>
+        <v>0.1685360611071509</v>
       </c>
       <c r="F24">
-        <v>1.488809544337755</v>
+        <v>2.412378150731925</v>
       </c>
       <c r="G24">
-        <v>0.8000121459863152</v>
+        <v>1.316514964935564</v>
       </c>
       <c r="H24">
-        <v>0.5608575007758674</v>
+        <v>1.243015875910544</v>
       </c>
       <c r="I24">
-        <v>0.607354697628864</v>
+        <v>1.267623953698703</v>
       </c>
       <c r="J24">
-        <v>0.08111380488037412</v>
+        <v>0.09102978572861886</v>
       </c>
       <c r="K24">
-        <v>1.292898299542117</v>
+        <v>0.5274498831340679</v>
       </c>
       <c r="L24">
-        <v>0.3413359678736896</v>
+        <v>0.4248111187204415</v>
       </c>
       <c r="M24">
-        <v>0.3680595515260663</v>
+        <v>0.2834562903483544</v>
       </c>
       <c r="N24">
-        <v>1.009298358752474</v>
+        <v>2.384052294780346</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.209306347363992</v>
+        <v>0.7555544794047648</v>
       </c>
       <c r="C25">
-        <v>0.09445512559776859</v>
+        <v>0.07950353271430544</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.07302827264555845</v>
+        <v>0.1679617332793981</v>
       </c>
       <c r="F25">
-        <v>1.363750954690715</v>
+        <v>2.40362134793925</v>
       </c>
       <c r="G25">
-        <v>0.7540491434286736</v>
+        <v>1.319022883914698</v>
       </c>
       <c r="H25">
-        <v>0.5522212925541652</v>
+        <v>1.251935487460628</v>
       </c>
       <c r="I25">
-        <v>0.597558710601227</v>
+        <v>1.277187015631988</v>
       </c>
       <c r="J25">
-        <v>0.07677438966167927</v>
+        <v>0.08929100363172182</v>
       </c>
       <c r="K25">
-        <v>1.054849412518223</v>
+        <v>0.4623827483016782</v>
       </c>
       <c r="L25">
-        <v>0.2930024713910626</v>
+        <v>0.415264013537552</v>
       </c>
       <c r="M25">
-        <v>0.305557090243461</v>
+        <v>0.2683797444470528</v>
       </c>
       <c r="N25">
-        <v>1.098505895172618</v>
+        <v>2.421518371045835</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_106/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_106/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7058433170332705</v>
+        <v>1.017228367534813</v>
       </c>
       <c r="C2">
-        <v>0.07589299558478046</v>
+        <v>0.08374414508339356</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1676849289299227</v>
+        <v>0.06839587069532982</v>
       </c>
       <c r="F2">
-        <v>2.400560874658339</v>
+        <v>1.278782125457511</v>
       </c>
       <c r="G2">
-        <v>1.322996667511106</v>
+        <v>0.7253981571501669</v>
       </c>
       <c r="H2">
-        <v>1.259991072425294</v>
+        <v>0.5487983322333889</v>
       </c>
       <c r="I2">
-        <v>1.285890466443668</v>
+        <v>0.5938302891766227</v>
       </c>
       <c r="J2">
-        <v>0.08798896417971491</v>
+        <v>0.07356016322710701</v>
       </c>
       <c r="K2">
-        <v>0.4149592270594553</v>
+        <v>0.8817185715467417</v>
       </c>
       <c r="L2">
-        <v>0.4087342123875288</v>
+        <v>0.2582869521586417</v>
       </c>
       <c r="M2">
-        <v>0.257632795613997</v>
+        <v>0.2603071624436666</v>
       </c>
       <c r="N2">
-        <v>2.451327081456153</v>
+        <v>1.168877804299157</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6727567676213937</v>
+        <v>0.8883201357402868</v>
       </c>
       <c r="C3">
-        <v>0.07339633752365415</v>
+        <v>0.07651732096263686</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1675891279756989</v>
+        <v>0.06536808710139397</v>
       </c>
       <c r="F3">
-        <v>2.400603688313481</v>
+        <v>1.225157376120521</v>
       </c>
       <c r="G3">
-        <v>1.327016002299288</v>
+        <v>0.7088654013774232</v>
       </c>
       <c r="H3">
-        <v>1.266380605452071</v>
+        <v>0.5481525093937449</v>
       </c>
       <c r="I3">
-        <v>1.292827113541033</v>
+        <v>0.5932842469108515</v>
       </c>
       <c r="J3">
-        <v>0.08709307933932564</v>
+        <v>0.07136931668943802</v>
       </c>
       <c r="K3">
-        <v>0.3831244869144257</v>
+        <v>0.765369899221696</v>
       </c>
       <c r="L3">
-        <v>0.4046225910701509</v>
+        <v>0.2352296662494098</v>
       </c>
       <c r="M3">
-        <v>0.2505718341667276</v>
+        <v>0.2300319773599142</v>
       </c>
       <c r="N3">
-        <v>2.472917094709249</v>
+        <v>1.219337115700146</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6527413314738055</v>
+        <v>0.8096828061767098</v>
       </c>
       <c r="C4">
-        <v>0.07183861730952401</v>
+        <v>0.07208582645335326</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.167575824062915</v>
+        <v>0.06356113863300195</v>
       </c>
       <c r="F4">
-        <v>2.401675821894329</v>
+        <v>1.194038737528032</v>
       </c>
       <c r="G4">
-        <v>1.330137978200739</v>
+        <v>0.7000286423511852</v>
       </c>
       <c r="H4">
-        <v>1.270763307915431</v>
+        <v>0.5485335392659465</v>
       </c>
       <c r="I4">
-        <v>1.297598862277525</v>
+        <v>0.5938669127304017</v>
       </c>
       <c r="J4">
-        <v>0.08653640024180831</v>
+        <v>0.07001777211426585</v>
       </c>
       <c r="K4">
-        <v>0.3637292863464978</v>
+        <v>0.6943099460688273</v>
       </c>
       <c r="L4">
-        <v>0.4022535390827855</v>
+        <v>0.221281509738354</v>
       </c>
       <c r="M4">
-        <v>0.2463467320889201</v>
+        <v>0.2116087470763617</v>
       </c>
       <c r="N4">
-        <v>2.486858812436656</v>
+        <v>1.251635970902914</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6446608164006875</v>
+        <v>0.7777514039066773</v>
       </c>
       <c r="C5">
-        <v>0.07119758485291783</v>
+        <v>0.07028004723728287</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1675818893520837</v>
+        <v>0.06283750002108945</v>
       </c>
       <c r="F5">
-        <v>2.402376052257068</v>
+        <v>1.181791793992559</v>
       </c>
       <c r="G5">
-        <v>1.331574706989286</v>
+        <v>0.696742980395328</v>
       </c>
       <c r="H5">
-        <v>1.272664952329492</v>
+        <v>0.548877602342472</v>
       </c>
       <c r="I5">
-        <v>1.29967237733641</v>
+        <v>0.5943268890317448</v>
       </c>
       <c r="J5">
-        <v>0.08630789975104491</v>
+        <v>0.06946539282542474</v>
       </c>
       <c r="K5">
-        <v>0.3558640228125256</v>
+        <v>0.6654331949407037</v>
       </c>
       <c r="L5">
-        <v>0.4013273832228137</v>
+        <v>0.2156470297878244</v>
       </c>
       <c r="M5">
-        <v>0.2446528664425784</v>
+        <v>0.2041391695787134</v>
       </c>
       <c r="N5">
-        <v>2.492712551790685</v>
+        <v>1.26512211184469</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6433236554084658</v>
+        <v>0.7724556775221458</v>
       </c>
       <c r="C6">
-        <v>0.07109076384069368</v>
+        <v>0.06998016600608992</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1675835914598078</v>
+        <v>0.06271809658291616</v>
       </c>
       <c r="F6">
-        <v>2.402508239333571</v>
+        <v>1.179783846021508</v>
       </c>
       <c r="G6">
-        <v>1.331823210689052</v>
+        <v>0.6962160193589284</v>
       </c>
       <c r="H6">
-        <v>1.272987707668321</v>
+        <v>0.5489459457705692</v>
       </c>
       <c r="I6">
-        <v>1.300024476088613</v>
+        <v>0.5944164737355742</v>
       </c>
       <c r="J6">
-        <v>0.08626985812938415</v>
+        <v>0.0693735727364384</v>
       </c>
       <c r="K6">
-        <v>0.3545603337672674</v>
+        <v>0.6606427025202635</v>
       </c>
       <c r="L6">
-        <v>0.4011759708978815</v>
+        <v>0.2147143317717592</v>
       </c>
       <c r="M6">
-        <v>0.2443732906455942</v>
+        <v>0.2029010457701155</v>
       </c>
       <c r="N6">
-        <v>2.493694972957595</v>
+        <v>1.267380852384047</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6526320466358868</v>
+        <v>0.8092517260072043</v>
       </c>
       <c r="C7">
-        <v>0.0718299974512675</v>
+        <v>0.07206147446531475</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1675758592977079</v>
+        <v>0.06355132845057732</v>
       </c>
       <c r="F7">
-        <v>2.401684198792751</v>
+        <v>1.193871839167073</v>
       </c>
       <c r="G7">
-        <v>1.330156688351977</v>
+        <v>0.6999830732107881</v>
       </c>
       <c r="H7">
-        <v>1.270788485717247</v>
+        <v>0.5485374236654081</v>
       </c>
       <c r="I7">
-        <v>1.297626304042996</v>
+        <v>0.5938722257471269</v>
       </c>
       <c r="J7">
-        <v>0.08653332526758106</v>
+        <v>0.07001032908938498</v>
       </c>
       <c r="K7">
-        <v>0.3636230565498124</v>
+        <v>0.6939201956507333</v>
       </c>
       <c r="L7">
-        <v>0.4022408894907059</v>
+        <v>0.2212053246732637</v>
       </c>
       <c r="M7">
-        <v>0.2463237748714597</v>
+        <v>0.2115078604348639</v>
       </c>
       <c r="N7">
-        <v>2.486937060021972</v>
+        <v>1.251816546426305</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6943731558397417</v>
+        <v>0.9726650455415324</v>
       </c>
       <c r="C8">
-        <v>0.0750372733232112</v>
+        <v>0.08125027957611763</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1676424736282982</v>
+        <v>0.06734082555999876</v>
       </c>
       <c r="F8">
-        <v>2.400358770330939</v>
+        <v>1.259904705456947</v>
       </c>
       <c r="G8">
-        <v>1.324246789273161</v>
+        <v>0.7194155031657914</v>
       </c>
       <c r="H8">
-        <v>1.262098879742055</v>
+        <v>0.5484101052490189</v>
       </c>
       <c r="I8">
-        <v>1.288175879208602</v>
+        <v>0.5934463776719596</v>
       </c>
       <c r="J8">
-        <v>0.08768143970787534</v>
+        <v>0.07280606849079518</v>
       </c>
       <c r="K8">
-        <v>0.4039513745442207</v>
+        <v>0.841513998297529</v>
       </c>
       <c r="L8">
-        <v>0.4072843393693262</v>
+        <v>0.250291493890046</v>
       </c>
       <c r="M8">
-        <v>0.2551753573700246</v>
+        <v>0.249831579731211</v>
       </c>
       <c r="N8">
-        <v>2.458629094827444</v>
+        <v>1.185998602960204</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7785873981084137</v>
+        <v>1.297920309570372</v>
       </c>
       <c r="C9">
-        <v>0.08113148788276447</v>
+        <v>0.09938238030580493</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1681325936292346</v>
+        <v>0.07520498672389309</v>
       </c>
       <c r="F9">
-        <v>2.406045444771621</v>
+        <v>1.404705891437885</v>
       </c>
       <c r="G9">
-        <v>1.317847542341269</v>
+        <v>0.7686758545891621</v>
       </c>
       <c r="H9">
-        <v>1.24869998420148</v>
+        <v>0.5546523047680552</v>
       </c>
       <c r="I9">
-        <v>1.273707647701094</v>
+        <v>0.6002902834244424</v>
       </c>
       <c r="J9">
-        <v>0.08988011221475745</v>
+        <v>0.0782390206636201</v>
       </c>
       <c r="K9">
-        <v>0.4842255846492947</v>
+        <v>1.134653987615962</v>
       </c>
       <c r="L9">
-        <v>0.418402602967447</v>
+        <v>0.3091378103506912</v>
       </c>
       <c r="M9">
-        <v>0.2734035403171617</v>
+        <v>0.3264789537850987</v>
       </c>
       <c r="N9">
-        <v>2.408552857561897</v>
+        <v>1.067705804386659</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8418797389525707</v>
+        <v>1.54091801957469</v>
       </c>
       <c r="C10">
-        <v>0.08549191904215547</v>
+        <v>0.11287388096207</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.168709753808475</v>
+        <v>0.08127580057163897</v>
       </c>
       <c r="F10">
-        <v>2.415261617648952</v>
+        <v>1.521865756181342</v>
       </c>
       <c r="G10">
-        <v>1.316311904407002</v>
+        <v>0.812739205926178</v>
       </c>
       <c r="H10">
-        <v>1.241070101419069</v>
+        <v>0.563673247967003</v>
       </c>
       <c r="I10">
-        <v>1.265551443918888</v>
+        <v>0.6105841581928146</v>
       </c>
       <c r="J10">
-        <v>0.09146290897181331</v>
+        <v>0.08220207797292645</v>
       </c>
       <c r="K10">
-        <v>0.54391994117114</v>
+        <v>1.353347639570217</v>
       </c>
       <c r="L10">
-        <v>0.4273133865803231</v>
+        <v>0.3536981733700344</v>
       </c>
       <c r="M10">
-        <v>0.2873207327667799</v>
+        <v>0.3839717294350109</v>
       </c>
       <c r="N10">
-        <v>2.3750709855316</v>
+        <v>0.9878459249730369</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.870977910827321</v>
+        <v>1.652604261790657</v>
       </c>
       <c r="C11">
-        <v>0.08745064425026783</v>
+        <v>0.1190729857038377</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1690190230540694</v>
+        <v>0.08410808017713123</v>
       </c>
       <c r="F11">
-        <v>2.420545766548699</v>
+        <v>1.577846822809221</v>
       </c>
       <c r="G11">
-        <v>1.316301285316541</v>
+        <v>0.8347499882987819</v>
       </c>
       <c r="H11">
-        <v>1.23807875342726</v>
+        <v>0.5688541170202654</v>
       </c>
       <c r="I11">
-        <v>1.262377328860964</v>
+        <v>0.6165497267323445</v>
       </c>
       <c r="J11">
-        <v>0.09217581533350483</v>
+        <v>0.08399913442209339</v>
       </c>
       <c r="K11">
-        <v>0.5712306129101989</v>
+        <v>1.453813737289181</v>
       </c>
       <c r="L11">
-        <v>0.4315269996002655</v>
+        <v>0.3743108873748326</v>
       </c>
       <c r="M11">
-        <v>0.2937649271723828</v>
+        <v>0.4104470799389759</v>
       </c>
       <c r="N11">
-        <v>2.360556798609267</v>
+        <v>0.9531611351438798</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8820402059043886</v>
+        <v>1.69508492950925</v>
       </c>
       <c r="C12">
-        <v>0.08818881652337041</v>
+        <v>0.1214315299387323</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1691428141861167</v>
+        <v>0.08519134645988302</v>
       </c>
       <c r="F12">
-        <v>2.422703439157829</v>
+        <v>1.59946188146516</v>
       </c>
       <c r="G12">
-        <v>1.316396208976855</v>
+        <v>0.8433906015572603</v>
       </c>
       <c r="H12">
-        <v>1.237014867678496</v>
+        <v>0.5709811405003649</v>
       </c>
       <c r="I12">
-        <v>1.261252409737857</v>
+        <v>0.6190057076551909</v>
       </c>
       <c r="J12">
-        <v>0.09244474134396441</v>
+        <v>0.08467882330345589</v>
       </c>
       <c r="K12">
-        <v>0.581594530325475</v>
+        <v>1.492021274412707</v>
       </c>
       <c r="L12">
-        <v>0.4331454659664473</v>
+        <v>0.3821702148747903</v>
       </c>
       <c r="M12">
-        <v>0.2962213260387756</v>
+        <v>0.4205244894824389</v>
       </c>
       <c r="N12">
-        <v>2.355163712337077</v>
+        <v>0.9402738259147547</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8796558195273008</v>
+        <v>1.685927236666629</v>
       </c>
       <c r="C13">
-        <v>0.08802999568658265</v>
+        <v>0.1209230455087322</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1691158572022289</v>
+        <v>0.08495755812139194</v>
       </c>
       <c r="F13">
-        <v>2.422231782143939</v>
+        <v>1.594787675275668</v>
       </c>
       <c r="G13">
-        <v>1.316371364570614</v>
+        <v>0.8415157166002984</v>
       </c>
       <c r="H13">
-        <v>1.237240932670886</v>
+        <v>0.5705155320552819</v>
       </c>
       <c r="I13">
-        <v>1.261491255245005</v>
+        <v>0.618467800465794</v>
       </c>
       <c r="J13">
-        <v>0.09238686960550169</v>
+        <v>0.08453247634666639</v>
       </c>
       <c r="K13">
-        <v>0.5793615048524146</v>
+        <v>1.483784969087083</v>
       </c>
       <c r="L13">
-        <v>0.4327958858917498</v>
+        <v>0.3804751019305002</v>
       </c>
       <c r="M13">
-        <v>0.2956915820139443</v>
+        <v>0.4183517443632283</v>
       </c>
       <c r="N13">
-        <v>2.356320623033454</v>
+        <v>0.9430381717060143</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8718871450299162</v>
+        <v>1.656095277197664</v>
       </c>
       <c r="C14">
-        <v>0.08751144525071197</v>
+        <v>0.1192667892736807</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1690290738260174</v>
+        <v>0.08419698233720041</v>
       </c>
       <c r="F14">
-        <v>2.420720141189065</v>
+        <v>1.579616583867008</v>
       </c>
       <c r="G14">
-        <v>1.316307111633662</v>
+        <v>0.835454594886599</v>
       </c>
       <c r="H14">
-        <v>1.23798984705995</v>
+        <v>0.5690257374919554</v>
       </c>
       <c r="I14">
-        <v>1.262283237205416</v>
+        <v>0.61674775990641</v>
       </c>
       <c r="J14">
-        <v>0.09219796087828414</v>
+        <v>0.08405506916307459</v>
       </c>
       <c r="K14">
-        <v>0.5720828207770126</v>
+        <v>1.45695369088358</v>
       </c>
       <c r="L14">
-        <v>0.4316596944779718</v>
+        <v>0.3749563746856239</v>
       </c>
       <c r="M14">
-        <v>0.2939666943574224</v>
+        <v>0.4112750839011312</v>
       </c>
       <c r="N14">
-        <v>2.360111039244131</v>
+        <v>0.9520958728916327</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8671342487664617</v>
+        <v>1.637847465943281</v>
       </c>
       <c r="C15">
-        <v>0.08719335583172949</v>
+        <v>0.1182537956310483</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1689767849303685</v>
+        <v>0.08373252487229976</v>
       </c>
       <c r="F15">
-        <v>2.419814612924952</v>
+        <v>1.570378992667642</v>
       </c>
       <c r="G15">
-        <v>1.316280640951973</v>
+        <v>0.8317824895628263</v>
       </c>
       <c r="H15">
-        <v>1.238457545598578</v>
+        <v>0.568135018367613</v>
       </c>
       <c r="I15">
-        <v>1.26277838156151</v>
+        <v>0.6157202197609735</v>
       </c>
       <c r="J15">
-        <v>0.09208211350598106</v>
+        <v>0.08376253731304928</v>
       </c>
       <c r="K15">
-        <v>0.5676272647386895</v>
+        <v>1.440540697054018</v>
       </c>
       <c r="L15">
-        <v>0.4309667172748419</v>
+        <v>0.3715831342395006</v>
       </c>
       <c r="M15">
-        <v>0.2929122458671927</v>
+        <v>0.4069473375931452</v>
       </c>
       <c r="N15">
-        <v>2.362446209126592</v>
+        <v>0.9576764822197923</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8399842164927804</v>
+        <v>1.533644020562605</v>
       </c>
       <c r="C16">
-        <v>0.0853634132642469</v>
+        <v>0.1124701811311155</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1686904789509285</v>
+        <v>0.08109217505393929</v>
       </c>
       <c r="F16">
-        <v>2.414938227541029</v>
+        <v>1.518263815794128</v>
       </c>
       <c r="G16">
-        <v>1.316326443279365</v>
+        <v>0.8113422314850709</v>
       </c>
       <c r="H16">
-        <v>1.241275235249745</v>
+        <v>0.5633572004171441</v>
       </c>
       <c r="I16">
-        <v>1.265769664619704</v>
+        <v>0.6102211547806249</v>
       </c>
       <c r="J16">
-        <v>0.09141617457395768</v>
+        <v>0.08208452118779164</v>
       </c>
       <c r="K16">
-        <v>0.5421382185421919</v>
+        <v>1.346803541019483</v>
       </c>
       <c r="L16">
-        <v>0.4270412246670787</v>
+        <v>0.3523583486135067</v>
       </c>
       <c r="M16">
-        <v>0.2869018540203498</v>
+        <v>0.3822484376056252</v>
       </c>
       <c r="N16">
-        <v>2.376033950181448</v>
+        <v>0.9901466320642491</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8234065571045051</v>
+        <v>1.470027646500114</v>
       </c>
       <c r="C17">
-        <v>0.08423445054853573</v>
+        <v>0.1089394428397057</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1685267760463951</v>
+        <v>0.07949090269968195</v>
       </c>
       <c r="F17">
-        <v>2.412226111278386</v>
+        <v>1.487001246703585</v>
       </c>
       <c r="G17">
-        <v>1.316530755142196</v>
+        <v>0.7993221345058288</v>
       </c>
       <c r="H17">
-        <v>1.243126555434401</v>
+        <v>0.5607091138419662</v>
       </c>
       <c r="I17">
-        <v>1.267742011205321</v>
+        <v>0.6071848238972777</v>
       </c>
       <c r="J17">
-        <v>0.09100581091073323</v>
+        <v>0.08105364594992182</v>
       </c>
       <c r="K17">
-        <v>0.5265410417923988</v>
+        <v>1.289565366259239</v>
       </c>
       <c r="L17">
-        <v>0.4246739467161404</v>
+        <v>0.3406553050164121</v>
       </c>
       <c r="M17">
-        <v>0.283243554778764</v>
+        <v>0.3671826387118458</v>
       </c>
       <c r="N17">
-        <v>2.38455322387588</v>
+        <v>1.0104944126082</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8139003784580154</v>
+        <v>1.433543536045505</v>
       </c>
       <c r="C18">
-        <v>0.08358276022826772</v>
+        <v>0.1069143257633201</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1684370180094987</v>
+        <v>0.07857650449658138</v>
       </c>
       <c r="F18">
-        <v>2.410768944403202</v>
+        <v>1.46927058766471</v>
       </c>
       <c r="G18">
-        <v>1.316713021930155</v>
+        <v>0.7925920905637014</v>
       </c>
       <c r="H18">
-        <v>1.244236525747056</v>
+        <v>0.5592867393149845</v>
       </c>
       <c r="I18">
-        <v>1.2689269239944</v>
+        <v>0.6055583549046801</v>
       </c>
       <c r="J18">
-        <v>0.09076911158516765</v>
+        <v>0.08046017124894433</v>
       </c>
       <c r="K18">
-        <v>0.5175846094165877</v>
+        <v>1.256734424123835</v>
       </c>
       <c r="L18">
-        <v>0.423327425121812</v>
+        <v>0.333955921608279</v>
       </c>
       <c r="M18">
-        <v>0.2811500614014548</v>
+        <v>0.3585471066186443</v>
       </c>
       <c r="N18">
-        <v>2.389520759090754</v>
+        <v>1.022351963003388</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8106867227699297</v>
+        <v>1.421208240008468</v>
       </c>
       <c r="C19">
-        <v>0.08336170643620733</v>
+        <v>0.1062295658437193</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1684073843309974</v>
+        <v>0.07826802322897564</v>
       </c>
       <c r="F19">
-        <v>2.410293232845717</v>
+        <v>1.463309469665248</v>
       </c>
       <c r="G19">
-        <v>1.316785854998258</v>
+        <v>0.7903442760635784</v>
       </c>
       <c r="H19">
-        <v>1.244620097967399</v>
+        <v>0.5588221490617968</v>
       </c>
       <c r="I19">
-        <v>1.269336785214584</v>
+        <v>0.6050278957530679</v>
       </c>
       <c r="J19">
-        <v>0.09068885475174682</v>
+        <v>0.08025913738003965</v>
       </c>
       <c r="K19">
-        <v>0.5145546435023505</v>
+        <v>1.245633403904492</v>
       </c>
       <c r="L19">
-        <v>0.4228741096898432</v>
+        <v>0.3316929699391977</v>
       </c>
       <c r="M19">
-        <v>0.2804430767139507</v>
+        <v>0.3556282401659629</v>
       </c>
       <c r="N19">
-        <v>2.391214268954361</v>
+        <v>1.026392870174284</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8251682952993917</v>
+        <v>1.476788551858164</v>
       </c>
       <c r="C20">
-        <v>0.08435487267945518</v>
+        <v>0.1093146937899689</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1685437474550682</v>
+        <v>0.0796606725055824</v>
       </c>
       <c r="F20">
-        <v>2.412504186478628</v>
+        <v>1.4903030372584</v>
       </c>
       <c r="G20">
-        <v>1.316502304071136</v>
+        <v>0.8005825321949516</v>
       </c>
       <c r="H20">
-        <v>1.242924808024995</v>
+        <v>0.5609805096962504</v>
       </c>
       <c r="I20">
-        <v>1.267526828349411</v>
+        <v>0.6074955447392583</v>
       </c>
       <c r="J20">
-        <v>0.09104956415503906</v>
+        <v>0.08116344044567825</v>
       </c>
       <c r="K20">
-        <v>0.5281998743606664</v>
+        <v>1.295648900665896</v>
       </c>
       <c r="L20">
-        <v>0.4249243884934657</v>
+        <v>0.3418977806221477</v>
       </c>
       <c r="M20">
-        <v>0.2836318844585435</v>
+        <v>0.3687832836731673</v>
       </c>
       <c r="N20">
-        <v>2.383639349067899</v>
+        <v>1.008312338607517</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8741678184591706</v>
+        <v>1.664852367628754</v>
       </c>
       <c r="C21">
-        <v>0.08766385239010788</v>
+        <v>0.1197529527671435</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1690543832991871</v>
+        <v>0.08442008544543711</v>
       </c>
       <c r="F21">
-        <v>2.421159896918681</v>
+        <v>1.584061153015284</v>
       </c>
       <c r="G21">
-        <v>1.316323298794529</v>
+        <v>0.8372264084748338</v>
       </c>
       <c r="H21">
-        <v>1.237768004211517</v>
+        <v>0.5694587590095068</v>
       </c>
       <c r="I21">
-        <v>1.262048522227744</v>
+        <v>0.6172475284261765</v>
       </c>
       <c r="J21">
-        <v>0.09225347617458723</v>
+        <v>0.08419531733400376</v>
       </c>
       <c r="K21">
-        <v>0.5742201538755864</v>
+        <v>1.464830073831394</v>
       </c>
       <c r="L21">
-        <v>0.4319928021725161</v>
+        <v>0.3765758622292168</v>
       </c>
       <c r="M21">
-        <v>0.2944728993533232</v>
+        <v>0.4133522196236754</v>
       </c>
       <c r="N21">
-        <v>2.358994903150823</v>
+        <v>0.9494286121452085</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9064448247261225</v>
+        <v>1.788867729889887</v>
       </c>
       <c r="C22">
-        <v>0.08980575304077831</v>
+        <v>0.1266406887444447</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1694270168219489</v>
+        <v>0.08759355810268232</v>
       </c>
       <c r="F22">
-        <v>2.427730016376202</v>
+        <v>1.647779272545321</v>
       </c>
       <c r="G22">
-        <v>1.316783043762328</v>
+        <v>0.8629684662240322</v>
       </c>
       <c r="H22">
-        <v>1.234799140826624</v>
+        <v>0.5759676615175664</v>
       </c>
       <c r="I22">
-        <v>1.258917210996493</v>
+        <v>0.6247754389760374</v>
       </c>
       <c r="J22">
-        <v>0.09303425673071075</v>
+        <v>0.0861720632142351</v>
       </c>
       <c r="K22">
-        <v>0.6044248784457125</v>
+        <v>1.576362530493185</v>
       </c>
       <c r="L22">
-        <v>0.4367456087197041</v>
+        <v>0.3995555797845469</v>
       </c>
       <c r="M22">
-        <v>0.301652030545668</v>
+        <v>0.4427852002238453</v>
       </c>
       <c r="N22">
-        <v>2.343489421151656</v>
+        <v>0.9123903220355452</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8891950217559668</v>
+        <v>1.722569324644041</v>
       </c>
       <c r="C23">
-        <v>0.08866446865206967</v>
+        <v>0.1229577833055515</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1692245888699055</v>
+        <v>0.08589385493600687</v>
       </c>
       <c r="F23">
-        <v>2.424139969274478</v>
+        <v>1.613537742205381</v>
       </c>
       <c r="G23">
-        <v>1.31648489172801</v>
+        <v>0.8490573661839136</v>
       </c>
       <c r="H23">
-        <v>1.236346977316799</v>
+        <v>0.5724015922489798</v>
       </c>
       <c r="I23">
-        <v>1.260547377380348</v>
+        <v>0.620647659406167</v>
       </c>
       <c r="J23">
-        <v>0.09261809690317335</v>
+        <v>0.08511746936877884</v>
       </c>
       <c r="K23">
-        <v>0.5882924823526992</v>
+        <v>1.51673971742369</v>
       </c>
       <c r="L23">
-        <v>0.4341968100550986</v>
+        <v>0.387260404715903</v>
       </c>
       <c r="M23">
-        <v>0.2978118523024378</v>
+        <v>0.4270464625727755</v>
       </c>
       <c r="N23">
-        <v>2.351709977001995</v>
+        <v>0.9320223438961683</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8243717369823287</v>
+        <v>1.473731668572981</v>
       </c>
       <c r="C24">
-        <v>0.08430043804177245</v>
+        <v>0.1091450281996771</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1685360611071509</v>
+        <v>0.07958390032536755</v>
       </c>
       <c r="F24">
-        <v>2.412378150731925</v>
+        <v>1.488809544337755</v>
       </c>
       <c r="G24">
-        <v>1.316514964935564</v>
+        <v>0.800012145986301</v>
       </c>
       <c r="H24">
-        <v>1.243015875910544</v>
+        <v>0.5608575007758674</v>
       </c>
       <c r="I24">
-        <v>1.267623953698703</v>
+        <v>0.6073546976288497</v>
       </c>
       <c r="J24">
-        <v>0.09102978572861886</v>
+        <v>0.08111380488037057</v>
       </c>
       <c r="K24">
-        <v>0.5274498831340679</v>
+        <v>1.292898299542287</v>
       </c>
       <c r="L24">
-        <v>0.4248111187204415</v>
+        <v>0.3413359678737748</v>
       </c>
       <c r="M24">
-        <v>0.2834562903483544</v>
+        <v>0.3680595515260734</v>
       </c>
       <c r="N24">
-        <v>2.384052294780346</v>
+        <v>1.009298358752524</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7555544794047648</v>
+        <v>1.209306347364077</v>
       </c>
       <c r="C25">
-        <v>0.07950353271430544</v>
+        <v>0.09445512559764069</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1679617332793981</v>
+        <v>0.07302827264554068</v>
       </c>
       <c r="F25">
-        <v>2.40362134793925</v>
+        <v>1.363750954690715</v>
       </c>
       <c r="G25">
-        <v>1.319022883914698</v>
+        <v>0.7540491434286736</v>
       </c>
       <c r="H25">
-        <v>1.251935487460628</v>
+        <v>0.5522212925541652</v>
       </c>
       <c r="I25">
-        <v>1.277187015631988</v>
+        <v>0.5975587106012483</v>
       </c>
       <c r="J25">
-        <v>0.08929100363172182</v>
+        <v>0.07677438966164019</v>
       </c>
       <c r="K25">
-        <v>0.4623827483016782</v>
+        <v>1.05484941251828</v>
       </c>
       <c r="L25">
-        <v>0.415264013537552</v>
+        <v>0.2930024713911479</v>
       </c>
       <c r="M25">
-        <v>0.2683797444470528</v>
+        <v>0.3055570902434539</v>
       </c>
       <c r="N25">
-        <v>2.421518371045835</v>
+        <v>1.098505895172689</v>
       </c>
       <c r="O25">
         <v>0</v>
